--- a/results/cv_results_SIDER_all.xlsx
+++ b/results/cv_results_SIDER_all.xlsx
@@ -660,22 +660,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.2351123395080812</v>
+        <v>1.233189373357557</v>
       </c>
       <c r="D8" t="n">
-        <v>0.2388449427717354</v>
+        <v>1.295247910708441</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1932574181554104</v>
+        <v>0.828847605062996</v>
       </c>
       <c r="F8" t="n">
-        <v>0.04185492135267079</v>
+        <v>0.4043417682945606</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1804013725659506</v>
+        <v>0.8331955949405928</v>
       </c>
       <c r="H8" t="n">
-        <v>0.05844357020578481</v>
+        <v>0.4620523157678483</v>
       </c>
     </row>
     <row r="9">
@@ -686,22 +686,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.4061289332020299</v>
+        <v>0.4066481326723406</v>
       </c>
       <c r="D9" t="n">
-        <v>0.516154559365757</v>
+        <v>0.5262150463525185</v>
       </c>
       <c r="E9" t="n">
-        <v>0.3322915827702728</v>
+        <v>0.33275776262461</v>
       </c>
       <c r="F9" t="n">
-        <v>0.07383735043175713</v>
+        <v>0.07389037004773061</v>
       </c>
       <c r="G9" t="n">
-        <v>0.3675674668613188</v>
+        <v>0.3760935403942983</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1485870925044382</v>
+        <v>0.1501215059582202</v>
       </c>
     </row>
     <row r="10">
@@ -820,22 +820,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.8786134541219628</v>
+        <v>1.279073053123224</v>
       </c>
       <c r="D14" t="n">
-        <v>0.940740567262913</v>
+        <v>1.370479157251752</v>
       </c>
       <c r="E14" t="n">
-        <v>0.6455920078372048</v>
+        <v>0.8655373691203232</v>
       </c>
       <c r="F14" t="n">
-        <v>0.233021446284758</v>
+        <v>0.413535684002901</v>
       </c>
       <c r="G14" t="n">
-        <v>0.6684642190337492</v>
+        <v>0.8941137404944391</v>
       </c>
       <c r="H14" t="n">
-        <v>0.2722763482291638</v>
+        <v>0.4763654167573128</v>
       </c>
     </row>
     <row r="15">
@@ -846,22 +846,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.5848956394433287</v>
+        <v>0.5848956443970277</v>
       </c>
       <c r="D15" t="n">
-        <v>0.5769528686142424</v>
+        <v>0.5769528611013538</v>
       </c>
       <c r="E15" t="n">
-        <v>0.4921324351745172</v>
+        <v>0.4921324411218481</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09276320426881143</v>
+        <v>0.09276320327517955</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4770851776719319</v>
+        <v>0.477085171290027</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0998676909423106</v>
+        <v>0.09986768981132682</v>
       </c>
     </row>
     <row r="16">
@@ -980,22 +980,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>1.059166582503983</v>
+        <v>1.117657896550092</v>
       </c>
       <c r="D20" t="n">
-        <v>1.09243551708389</v>
+        <v>1.145835916654541</v>
       </c>
       <c r="E20" t="n">
-        <v>0.7461664710062995</v>
+        <v>0.762990801546775</v>
       </c>
       <c r="F20" t="n">
-        <v>0.3130001114976831</v>
+        <v>0.3546670950033171</v>
       </c>
       <c r="G20" t="n">
-        <v>0.7376669803943512</v>
+        <v>0.7603997832831759</v>
       </c>
       <c r="H20" t="n">
-        <v>0.3547685366895393</v>
+        <v>0.3854361333713648</v>
       </c>
     </row>
     <row r="21">
@@ -1006,22 +1006,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.8208372928440819</v>
+        <v>0.8208375806699122</v>
       </c>
       <c r="D21" t="n">
-        <v>0.967888605167891</v>
+        <v>0.9678866980168233</v>
       </c>
       <c r="E21" t="n">
-        <v>0.6412873736721526</v>
+        <v>0.6412875707776089</v>
       </c>
       <c r="F21" t="n">
-        <v>0.1795499191719293</v>
+        <v>0.1795500098923033</v>
       </c>
       <c r="G21" t="n">
-        <v>0.6594424032220162</v>
+        <v>0.6594421412760368</v>
       </c>
       <c r="H21" t="n">
-        <v>0.3084462019458749</v>
+        <v>0.3084445567407865</v>
       </c>
     </row>
     <row r="22">
@@ -1140,22 +1140,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>1.111009456235564</v>
+        <v>1.261872304984982</v>
       </c>
       <c r="D26" t="n">
-        <v>1.122558087931476</v>
+        <v>1.243184922254844</v>
       </c>
       <c r="E26" t="n">
-        <v>0.7518311807230232</v>
+        <v>0.8286323223622705</v>
       </c>
       <c r="F26" t="n">
-        <v>0.3591782755125404</v>
+        <v>0.4332399826227117</v>
       </c>
       <c r="G26" t="n">
-        <v>0.7314264589272962</v>
+        <v>0.805630142278941</v>
       </c>
       <c r="H26" t="n">
-        <v>0.3911316290041796</v>
+        <v>0.4375547799759033</v>
       </c>
     </row>
     <row r="27">
@@ -1166,22 +1166,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.8535478897647156</v>
+        <v>0.8535482149090603</v>
       </c>
       <c r="D27" t="n">
-        <v>0.8728195063254945</v>
+        <v>0.8728193398140716</v>
       </c>
       <c r="E27" t="n">
-        <v>0.6151598834512201</v>
+        <v>0.6151600023244124</v>
       </c>
       <c r="F27" t="n">
-        <v>0.2383880063134956</v>
+        <v>0.2383882125846479</v>
       </c>
       <c r="G27" t="n">
-        <v>0.5919503386099905</v>
+        <v>0.5919502988802465</v>
       </c>
       <c r="H27" t="n">
-        <v>0.2808691677155041</v>
+        <v>0.280869040933825</v>
       </c>
     </row>
     <row r="28">
@@ -1300,22 +1300,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.9960687321971663</v>
+        <v>1.045623283784273</v>
       </c>
       <c r="D32" t="n">
-        <v>0.9865201876415822</v>
+        <v>1.076646319037361</v>
       </c>
       <c r="E32" t="n">
-        <v>0.7049753857316947</v>
+        <v>0.7252838235423351</v>
       </c>
       <c r="F32" t="n">
-        <v>0.2910933464654716</v>
+        <v>0.3203394602419377</v>
       </c>
       <c r="G32" t="n">
-        <v>0.6788913845639952</v>
+        <v>0.7073290765228114</v>
       </c>
       <c r="H32" t="n">
-        <v>0.307628803077587</v>
+        <v>0.3693172425145501</v>
       </c>
     </row>
     <row r="33">
@@ -1326,22 +1326,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.6535191586205022</v>
+        <v>0.6531254389555483</v>
       </c>
       <c r="D33" t="n">
-        <v>0.7900875393995945</v>
+        <v>0.7698098434976102</v>
       </c>
       <c r="E33" t="n">
-        <v>0.5230484093517126</v>
+        <v>0.5227804392200818</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1304707492687897</v>
+        <v>0.1303449997354665</v>
       </c>
       <c r="G33" t="n">
-        <v>0.5167903028741108</v>
+        <v>0.5106327650473761</v>
       </c>
       <c r="H33" t="n">
-        <v>0.2732972365254838</v>
+        <v>0.2591770784502341</v>
       </c>
     </row>
     <row r="34">
@@ -1460,22 +1460,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>1.210839476335378</v>
+        <v>1.211445767775524</v>
       </c>
       <c r="D38" t="n">
-        <v>1.311486574303671</v>
+        <v>1.307031567273648</v>
       </c>
       <c r="E38" t="n">
-        <v>0.8281466193629425</v>
+        <v>0.8237082657247712</v>
       </c>
       <c r="F38" t="n">
-        <v>0.382692856972435</v>
+        <v>0.3877375020507531</v>
       </c>
       <c r="G38" t="n">
-        <v>0.8361337393228681</v>
+        <v>0.8314812628524137</v>
       </c>
       <c r="H38" t="n">
-        <v>0.4753528349808034</v>
+        <v>0.4755503044212341</v>
       </c>
     </row>
     <row r="39">
@@ -1486,22 +1486,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0.4571041670096636</v>
+        <v>0.4571029733529832</v>
       </c>
       <c r="D39" t="n">
-        <v>0.411660637557828</v>
+        <v>0.4116590486736366</v>
       </c>
       <c r="E39" t="n">
-        <v>0.3698858043394459</v>
+        <v>0.3698845159291674</v>
       </c>
       <c r="F39" t="n">
-        <v>0.08721836267021765</v>
+        <v>0.08721845742381575</v>
       </c>
       <c r="G39" t="n">
-        <v>0.3201899322086352</v>
+        <v>0.3201886346560561</v>
       </c>
       <c r="H39" t="n">
-        <v>0.09147070534919283</v>
+        <v>0.09147041401758041</v>
       </c>
     </row>
     <row r="40">
@@ -1620,22 +1620,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>1.190863884027032</v>
+        <v>1.17642279280472</v>
       </c>
       <c r="D44" t="n">
-        <v>1.305053414493428</v>
+        <v>1.302458709808713</v>
       </c>
       <c r="E44" t="n">
-        <v>0.8170570821666974</v>
+        <v>0.8110843912168191</v>
       </c>
       <c r="F44" t="n">
-        <v>0.3738068018603345</v>
+        <v>0.3653384015879005</v>
       </c>
       <c r="G44" t="n">
-        <v>0.8491351364027238</v>
+        <v>0.8477436807847388</v>
       </c>
       <c r="H44" t="n">
-        <v>0.4559182780907041</v>
+        <v>0.4547150290239738</v>
       </c>
     </row>
     <row r="45">
@@ -1646,22 +1646,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>0.4920813624335679</v>
+        <v>0.4921918096822991</v>
       </c>
       <c r="D45" t="n">
-        <v>0.5083673798703671</v>
+        <v>0.5098674916795255</v>
       </c>
       <c r="E45" t="n">
-        <v>0.4130281922902738</v>
+        <v>0.4131281037072305</v>
       </c>
       <c r="F45" t="n">
-        <v>0.07905317014329419</v>
+        <v>0.07906370597506868</v>
       </c>
       <c r="G45" t="n">
-        <v>0.3980811021430524</v>
+        <v>0.3999053838226862</v>
       </c>
       <c r="H45" t="n">
-        <v>0.1102862777273147</v>
+        <v>0.1099621078568393</v>
       </c>
     </row>
   </sheetData>
